--- a/speedtree/【树】研究.xlsx
+++ b/speedtree/【树】研究.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>目的：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,10 @@
   </si>
   <si>
     <t xml:space="preserve">从编译中指定知道， speedtreeCommo.cginc  文件。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1595,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1638,7 +1642,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>40</v>
       </c>
@@ -1646,12 +1655,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
         <v>43</v>
       </c>
